--- a/R/analysis/data/Pt_18_Control.xlsx
+++ b/R/analysis/data/Pt_18_Control.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.21</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>5.66</v>
+        <v>0.95</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.67</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>3.89</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.75</v>
+        <v>2.75</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>2.12</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
         <v>0.35</v>
@@ -758,7 +758,7 @@
         <v>1.21</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="M6" t="n">
         <v>0.71</v>
@@ -815,16 +815,16 @@
         <v>1.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.07</v>
+        <v>1.53</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.08</v>
+        <v>3.58</v>
       </c>
       <c r="M7" t="n">
-        <v>3.54</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
         <v>0.08</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>1.2</v>
       </c>
       <c r="L9" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -989,14 +989,14 @@
         <v>0.85</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>1.06</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.75</v>
+        <v>3.25</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0.52</v>
@@ -1105,10 +1105,10 @@
         <v>1.65</v>
       </c>
       <c r="K12" t="n">
-        <v>2.79</v>
+        <v>1.17</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.17</v>
+        <v>3.17</v>
       </c>
       <c r="M12" t="n">
         <v>2.12</v>
@@ -1165,16 +1165,16 @@
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.57</v>
+        <v>0.79</v>
       </c>
       <c r="L13" t="n">
-        <v>1.06</v>
+        <v>3.73</v>
       </c>
       <c r="M13" t="n">
-        <v>4.6</v>
+        <v>0.35</v>
       </c>
       <c r="N13" t="n">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
         <v>0.18</v>
@@ -1286,7 +1286,7 @@
         <v>1.51</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1341,10 +1341,10 @@
         <v>1.18</v>
       </c>
       <c r="K16" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1456,7 +1456,7 @@
         <v>1.29</v>
       </c>
       <c r="L18" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1511,16 +1511,16 @@
         <v>0.66</v>
       </c>
       <c r="K19" t="n">
-        <v>5.15</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.36</v>
+        <v>3.64</v>
       </c>
       <c r="M19" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1571,14 +1571,14 @@
         <v>1.65</v>
       </c>
       <c r="K20" t="n">
-        <v>1.95</v>
+        <v>0.76</v>
       </c>
       <c r="L20" t="n">
-        <v>2.14</v>
+        <v>2.71</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>2.08</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.22</v>
@@ -1689,16 +1689,16 @@
         <v>1.73</v>
       </c>
       <c r="K22" t="n">
-        <v>3.87</v>
+        <v>0.44</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.6</v>
+        <v>3.02</v>
       </c>
       <c r="M22" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0.98</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.83</v>
+        <v>2.83</v>
       </c>
       <c r="M24" t="n">
-        <v>2.83</v>
+        <v>1.41</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>1.42</v>
       </c>
       <c r="K25" t="n">
-        <v>3.42</v>
+        <v>0.59</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.42</v>
+        <v>2.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1929,16 +1929,16 @@
         <v>0.94</v>
       </c>
       <c r="K26" t="n">
-        <v>1.73</v>
+        <v>0.58</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>1.69</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.62</v>
+        <v>3.62</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="e">
@@ -2043,14 +2043,14 @@
         <v>0.94</v>
       </c>
       <c r="K28" t="n">
-        <v>3.27</v>
+        <v>1.38</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.31</v>
+        <v>2.64</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
